--- a/dashboard/backend/Sorted_Groups.xlsx
+++ b/dashboard/backend/Sorted_Groups.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,5448 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EIDs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg GPA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fame</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Communication, Signal Processing, Networks and Systems</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Electronics and Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Systems and Renewable Energy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fields, Waves and Electromagnetic Systems</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Nanoelectronics and Nanotechnology</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Computer Architecture and Embedded Systems</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Data Science and Information Processing</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Software Engineering and Design</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>internet of things (IOT)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>internet / connectivity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>battery chargers, power</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Rust programming</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>C programming</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>computer-aided design (CAD)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>machine learning principles</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>mechatronics</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>FreeRTOS, IWi-SUN, CoAP, and IPv6 multicast</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>algorithm design</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>system modeling</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>dynamics</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>UX flow</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>system modeling.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>control systems</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>hardware interfacing</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>FPGA</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>image processing</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF signal processing</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>sensor characterization</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>design of experiment</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>navigation algorithm</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>blockchain</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>5G Networks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Comp1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Name1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'EID070', 'EID083', 'EID038', 'EID081'}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Comp2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'EID054', 'EID082', 'EID029', 'EID022'}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>383</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Name3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'EID088', 'EID049', 'EID050', 'EID068'}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>441</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comp4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Name4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'EID028', 'EID086', 'EID047', 'EID018'}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>377</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comp2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Name5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'EID042', 'EID089', 'EID031', 'EID074'}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>278</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>I6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comp5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Name6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'EID091', 'EID030', 'EID093', 'EID010'}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>332</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Name7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'EID075', 'EID061', 'EID007', 'EID045'}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>417</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comp6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Name8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'EID059', 'EID066', 'EID069', 'EID016'}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>288</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comp2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'EID053', 'EID057', 'EID079', 'EID048'}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>236</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Comp7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'EID008', 'EID040', 'EID043', 'EID046'}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>510</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comp8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'EID102', 'EID060', 'EID039', 'EID097'}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>278</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Comp7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'EID104', 'EID026', 'EID034', 'EID014'}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>319</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'EID041', 'EID058', 'EID020', 'EID087'}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>526</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Comp1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Name14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'EID009', 'EID099', 'EID011', 'EID056'}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>384</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Comp9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'EID103', 'EID092', 'EID085', 'EID076'}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>276</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'EID005', 'EID036', 'EID077', 'EID080'}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>230</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>I17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Comp2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'EID044', 'EID096', 'EID094', 'EID003'}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>205</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>I18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Comp4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'EID055', 'EID051', 'EID078', 'EID019'}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>302</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>I19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Comp8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Name19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'EID101', 'EID073', 'EID027', 'EID052'}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>402</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>I20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Name20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'EID062', 'EID090', 'EID100', 'EID071'}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>244</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FH8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Comp1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Name21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'EID063', 'EID065', 'EID025', 'EID012'}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>186</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FH11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Name22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'EID098', 'EID015', 'EID033', 'EID001'}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>264</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FH13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Comp2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Name23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'EID032', 'EID072', 'EID037', 'EID067'}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>215</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FH14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Comp4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Name24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'EID006', 'EID023', 'EID084', 'EID064'}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>179</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FH18</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Comp5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Name25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'EID035', 'EID095', 'EID017', 'EID021'}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>455</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IH3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Comp3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Name26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'EID002', 'EID024', 'EID013', 'EID004'}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>181</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dashboard/backend/Sorted_Groups.xlsx
+++ b/dashboard/backend/Sorted_Groups.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'EID038', 'EID070', 'EID081', 'EID083'}</t>
+          <t>{'EID081', 'EID070', 'EID038', 'EID083'}</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'EID022', 'EID029', 'EID054', 'EID082'}</t>
+          <t>{'EID029', 'EID054', 'EID022', 'EID082'}</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'EID088', 'EID050', 'EID068', 'EID049'}</t>
+          <t>{'EID088', 'EID068', 'EID050', 'EID049'}</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'EID086', 'EID018', 'EID047', 'EID028'}</t>
+          <t>{'EID028', 'EID018', 'EID086', 'EID047'}</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'EID031', 'EID089', 'EID074', 'EID042'}</t>
+          <t>{'EID031', 'EID074', 'EID089', 'EID042'}</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'EID093', 'EID010', 'EID030', 'EID091'}</t>
+          <t>{'EID030', 'EID093', 'EID010', 'EID091'}</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'EID007', 'EID075', 'EID045', 'EID061'}</t>
+          <t>{'EID045', 'EID061', 'EID075', 'EID007'}</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'EID059', 'EID069', 'EID066', 'EID016'}</t>
+          <t>{'EID069', 'EID016', 'EID059', 'EID066'}</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'EID053', 'EID057', 'EID048', 'EID079'}</t>
+          <t>{'EID079', 'EID053', 'EID048', 'EID057'}</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'EID040', 'EID046', 'EID043', 'EID008'}</t>
+          <t>{'EID008', 'EID043', 'EID046', 'EID040'}</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'EID060', 'EID039', 'EID102', 'EID097'}</t>
+          <t>{'EID102', 'EID060', 'EID039', 'EID097'}</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'EID104', 'EID026', 'EID034', 'EID014'}</t>
+          <t>{'EID034', 'EID026', 'EID014', 'EID104'}</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'EID087', 'EID041', 'EID020', 'EID058'}</t>
+          <t>{'EID041', 'EID058', 'EID020', 'EID087'}</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'EID099', 'EID056', 'EID009', 'EID011'}</t>
+          <t>{'EID011', 'EID009', 'EID099', 'EID056'}</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'EID076', 'EID085', 'EID092', 'EID103'}</t>
+          <t>{'EID092', 'EID076', 'EID103', 'EID085'}</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'EID080', 'EID005', 'EID077', 'EID036'}</t>
+          <t>{'EID036', 'EID077', 'EID080', 'EID005'}</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'EID094', 'EID003', 'EID044', 'EID096'}</t>
+          <t>{'EID044', 'EID096', 'EID094', 'EID003'}</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'EID078', 'EID051', 'EID055', 'EID019'}</t>
+          <t>{'EID078', 'EID055', 'EID019', 'EID051'}</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'EID027', 'EID101', 'EID052', 'EID073'}</t>
+          <t>{'EID073', 'EID052', 'EID027', 'EID101'}</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'EID090', 'EID062', 'EID071', 'EID100'}</t>
+          <t>{'EID071', 'EID062', 'EID100', 'EID090'}</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'EID065', 'EID063', 'EID025', 'EID012'}</t>
+          <t>{'EID012', 'EID025', 'EID063', 'EID065'}</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'EID001', 'EID033', 'EID015', 'EID098'}</t>
+          <t>{'EID015', 'EID098', 'EID033', 'EID001'}</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'EID037', 'EID032', 'EID072', 'EID067'}</t>
+          <t>{'EID032', 'EID067', 'EID072', 'EID037'}</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'EID084', 'EID023', 'EID064', 'EID006'}</t>
+          <t>{'EID084', 'EID064', 'EID006', 'EID023'}</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'EID017', 'EID035', 'EID021', 'EID095'}</t>
+          <t>{'EID095', 'EID017', 'EID021', 'EID035'}</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'EID004', 'EID002', 'EID013', 'EID024'}</t>
+          <t>{'EID002', 'EID004', 'EID013', 'EID024'}</t>
         </is>
       </c>
       <c r="E27" t="n">
